--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -399,35 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>159</v>
+        <v>5151</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>159</v>
+        <v>13928</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>159</v>
+        <v>13928</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5151</v>
+        <v>7630</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>13928</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>13928</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>7630</v>
+        <v>3016</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3016</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3016</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3016</v>
+        <v>922</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -410,24 +410,288 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3016</v>
+        <v>2608</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3016</v>
+        <v>2851</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>12923</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>11968</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>471</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>12924</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>448</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4203</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1490</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6494</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11402</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12925</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>11965</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2161</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>6421</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>6497</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>857</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>9358</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>8926</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>470</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1091</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>858</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>823</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>6496</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1492</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,299 +399,607 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>922</v>
+        <v>3879</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2608</v>
+        <v>3879</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2851</v>
+        <v>3456</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>12923</v>
+        <v>3456</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>11968</v>
+        <v>3340</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>471</v>
+        <v>5255</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>12924</v>
+        <v>11104</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>448</v>
+        <v>12964</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4203</v>
+        <v>12964</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1490</v>
+        <v>1661</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6494</v>
+        <v>1661</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11402</v>
+        <v>20190</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12925</v>
+        <v>20188</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11965</v>
+        <v>1185</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2161</v>
+        <v>1185</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>6421</v>
+        <v>3341</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>6497</v>
+        <v>3341</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>857</v>
+        <v>11081</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>9358</v>
+        <v>11081</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>8926</v>
+        <v>1183</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>470</v>
+        <v>1183</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1091</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>858</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>823</v>
+        <v>2703</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>6496</v>
+        <v>20188</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1492</v>
+        <v>7724</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>79</v>
+        <v>1667</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1699</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>11104</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>11080</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3340</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2703</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1667</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1699</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2704</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>20190</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>7724</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>160</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>160</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>161</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>5255</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>3880</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>3880</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2007</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>11105</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>11105</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>11080</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2704</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>3033</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>3033</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>954</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>954</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,1432 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>159</v>
+        <v>13244</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>418</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>345</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2424</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2805</v>
+      </c>
+      <c r="B6">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11426</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>141</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>589</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>439</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11180</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1413</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2424</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>6098</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1309</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2331</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>346</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>7084</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5165</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3334</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>12350</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>6936</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>8650</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2438</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>8853</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>11681</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>201</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>9372</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>434</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>13280</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4033</v>
+      </c>
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>13034</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1886</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5493</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5491</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>6952</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>13023</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>9998</v>
+      </c>
+      <c r="B40">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>9784</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5165</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>346</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>20927</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2912</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>6935</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>305</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>11737</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>432</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>12304</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>12353</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>12346</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>8648</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>361</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>417</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>411</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>11490</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>7036</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>416</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>11772</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>3576</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>4032</v>
+      </c>
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2778</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>11586</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>5076</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>3575</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>143</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>20252</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>20256</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>10574</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2912</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>7004</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>10149</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>3893</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>140</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>412</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>615</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>593</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>413</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>4253</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>3478</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>1701</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>248</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>6097</v>
+      </c>
+      <c r="B85">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>8677</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>6097</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1492</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>362</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>6494</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>950</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>11583</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>12351</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>583</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1519</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>12764</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>12870</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>998</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>11234</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>6098</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>7005</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>11770</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>410</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1124</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>21793</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>22316</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>2328</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>5151</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>11491</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>12343</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>12345</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>151</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>11952</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>8915</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>414</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>3670</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>616</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>2775</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>2776</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>972</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>205</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>142</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>523</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>206</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>2423</v>
+      </c>
+      <c r="B126">
+        <v>80</v>
+      </c>
+      <c r="C126">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1429</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1446</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>8649</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>11813</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>990</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9239</v>
+        <v>11960</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,717 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>11960</v>
+        <v>144</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4372</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>12344</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>13893</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3889</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2160</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2327</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>114</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>50</v>
+      <c r="C9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1523</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9971</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9491</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10609</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9069</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>8283</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>11814</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>12870</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>11770</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>8648</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5076</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2528</v>
+      </c>
+      <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3577</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3891</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>12647</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>9965</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>11425</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4076</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>7885</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1277</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>9289</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>10407</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>11953</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2050</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3495</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>9964</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>23238</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>23238</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>336</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>4586</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>13249</v>
+      </c>
+      <c r="B41">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5812</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>957</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2878</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>823</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>5584</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>8677</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>289</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2805</v>
+      </c>
+      <c r="B49">
+        <v>137</v>
+      </c>
+      <c r="C49">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1413</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>11813</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>11404</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2331</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2438</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>9372</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>229</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>4033</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>13023</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>13244</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>21697</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>11089</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>4253</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1701</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>7324</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>9967</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,717 +399,838 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4372</v>
+        <v>140</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>945</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>12344</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>535</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>13893</v>
+        <v>229</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3889</v>
+        <v>336</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2160</v>
+        <v>413</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2327</v>
+        <v>972</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>114</v>
+        <v>995</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1523</v>
+        <v>1413</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9971</v>
+        <v>1492</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>9491</v>
+        <v>1700</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1805</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>10609</v>
+        <v>2055</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>245</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9069</v>
+        <v>2057</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>8283</v>
+        <v>2160</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>408</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>11814</v>
+        <v>2331</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>193</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>12870</v>
+        <v>2424</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>11770</v>
+        <v>2438</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>189</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>8648</v>
+        <v>2775</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5076</v>
+        <v>2778</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>75</v>
+        <v>2805</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C21">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2528</v>
+        <v>2912</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3577</v>
+        <v>2912</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3891</v>
+        <v>3334</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>12647</v>
+        <v>3495</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>189</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>9965</v>
+        <v>3577</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>232</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>11425</v>
+        <v>3840</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4076</v>
+        <v>3889</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>7885</v>
+        <v>3893</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1277</v>
+        <v>4032</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>9289</v>
+        <v>4076</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>10407</v>
+        <v>4253</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1001</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>11953</v>
+        <v>5151</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2050</v>
+        <v>5165</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>164</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3495</v>
+        <v>5584</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>829</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9964</v>
+        <v>6158</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>23238</v>
+        <v>6494</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>23238</v>
+        <v>7036</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>336</v>
+        <v>7324</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4586</v>
+        <v>8089</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1264</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>13249</v>
+        <v>8283</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5812</v>
+        <v>8285</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>505</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>957</v>
+        <v>8926</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2878</v>
+        <v>9069</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>823</v>
+        <v>9289</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>5584</v>
+        <v>9372</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8677</v>
+        <v>9491</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>254</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>289</v>
+        <v>9964</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>496</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2805</v>
+        <v>9965</v>
       </c>
       <c r="B49">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>155</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1413</v>
+        <v>9967</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>86</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3</v>
+        <v>9971</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>105</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>11813</v>
+        <v>10149</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>267</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11404</v>
+        <v>10407</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2331</v>
+        <v>10609</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2438</v>
+        <v>11150</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>538</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>9372</v>
+        <v>11425</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>199</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>229</v>
+        <v>11426</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4033</v>
+        <v>11687</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>13023</v>
+        <v>11770</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>511</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>13244</v>
+        <v>11812</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>43</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>21697</v>
+        <v>11813</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>156</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11089</v>
+        <v>11814</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>147</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>4253</v>
+        <v>12304</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1701</v>
+        <v>12343</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>140</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7324</v>
+        <v>12345</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>52</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>9967</v>
+        <v>12349</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>232</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>12351</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>12647</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>12764</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>12870</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>13034</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>13249</v>
+      </c>
+      <c r="B72">
+        <v>29</v>
+      </c>
+      <c r="C72">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>13280</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>13893</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>21697</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>21793</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>22317</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,194 +427,194 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>413</v>
+        <v>229</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>972</v>
+        <v>289</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>995</v>
+        <v>336</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1413</v>
+        <v>411</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1492</v>
+        <v>412</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1700</v>
+        <v>972</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2055</v>
+        <v>1277</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2057</v>
+        <v>1703</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2160</v>
+        <v>1801</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2331</v>
+        <v>1886</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2424</v>
+        <v>2055</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>154</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2438</v>
+        <v>2057</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>581</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2775</v>
+        <v>2424</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2778</v>
+        <v>2528</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>146</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2805</v>
+        <v>2912</v>
       </c>
       <c r="B21">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,150 +622,150 @@
         <v>2912</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2912</v>
+        <v>3495</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>348</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3334</v>
+        <v>3577</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>168</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3495</v>
+        <v>3840</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>896</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3577</v>
+        <v>4032</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3840</v>
+        <v>4253</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3889</v>
+        <v>5076</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3893</v>
+        <v>5151</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4032</v>
+        <v>5165</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>89</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4076</v>
+        <v>5208</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>186</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4253</v>
+        <v>5584</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>157</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5151</v>
+        <v>7324</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5165</v>
+        <v>9069</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>347</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5584</v>
+        <v>9372</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>216</v>
@@ -773,464 +773,266 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>6158</v>
+        <v>9491</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6494</v>
+        <v>10149</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7036</v>
+        <v>10993</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>119</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7324</v>
+        <v>11150</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8089</v>
+        <v>11425</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8283</v>
+        <v>11426</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>441</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8285</v>
+        <v>11490</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>446</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8926</v>
+        <v>11583</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9069</v>
+        <v>11687</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>114</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9289</v>
+        <v>11739</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9372</v>
+        <v>11770</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>9491</v>
+        <v>11813</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1951</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>9964</v>
+        <v>12304</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>251</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>9965</v>
+        <v>12647</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>251</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>9967</v>
+        <v>12764</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>251</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9971</v>
+        <v>13028</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>10149</v>
+        <v>13249</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C52">
-        <v>809</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>10407</v>
+        <v>13280</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>1115</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10609</v>
+        <v>14041</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>265</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11150</v>
+        <v>21697</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>286</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11425</v>
+        <v>21793</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>110</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11426</v>
+        <v>21798</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11687</v>
+        <v>22317</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>142</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11770</v>
+        <v>24257</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>11812</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>11813</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>11814</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>12304</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>12343</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>12345</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>12349</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>12351</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>12647</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>12764</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>12870</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>13034</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>13249</v>
-      </c>
-      <c r="B72">
-        <v>29</v>
-      </c>
-      <c r="C72">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>13280</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>13893</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>21697</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>21793</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>22317</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>299</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,634 +405,1338 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>139</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1261</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>538</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>412</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>972</v>
+        <v>205</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>557</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1277</v>
+        <v>214</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>184</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1703</v>
+        <v>229</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1801</v>
+        <v>248</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1886</v>
+        <v>335</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>146</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2055</v>
+        <v>345</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>444</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2057</v>
+        <v>346</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2424</v>
+        <v>346</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>158</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2528</v>
+        <v>361</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2912</v>
+        <v>362</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2912</v>
+        <v>413</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>359</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3495</v>
+        <v>432</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>899</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3577</v>
+        <v>434</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3840</v>
+        <v>523</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4032</v>
+        <v>589</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4253</v>
+        <v>593</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>158</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5076</v>
+        <v>972</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>121</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5151</v>
+        <v>995</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5165</v>
+        <v>997</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>357</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5208</v>
+        <v>998</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>530</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5584</v>
+        <v>1124</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>7324</v>
+        <v>1309</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9069</v>
+        <v>1490</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>9372</v>
+        <v>1492</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>216</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9491</v>
+        <v>1519</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1959</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>10149</v>
+        <v>1700</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>819</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>10993</v>
+        <v>2049</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>11150</v>
+        <v>2160</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C39">
-        <v>329</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>11425</v>
+        <v>2327</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>11426</v>
+        <v>2328</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>11490</v>
+        <v>2331</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>11583</v>
+        <v>2424</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>11687</v>
+        <v>2438</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>284</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>11739</v>
+        <v>2775</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>11770</v>
+        <v>2776</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>11813</v>
+        <v>2778</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>291</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>12304</v>
+        <v>2805</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C48">
-        <v>99</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>12647</v>
+        <v>2912</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>205</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>12764</v>
+        <v>2912</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
-        <v>690</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>13028</v>
+        <v>3334</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>135</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>13249</v>
+        <v>3478</v>
       </c>
       <c r="B52">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>13280</v>
+        <v>3575</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>298</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>14041</v>
+        <v>3576</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>613</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>21697</v>
+        <v>3577</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C55">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>21793</v>
+        <v>3889</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>224</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>21798</v>
+        <v>3891</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>22317</v>
+        <v>3893</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>300</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>24257</v>
+        <v>4032</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>49</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>4076</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>4586</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>5076</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>5151</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>5165</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>5165</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>5493</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>5584</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>5812</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>6097</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>6097</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>6098</v>
+      </c>
+      <c r="B71">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>6935</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>6936</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>6952</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>7004</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>7005</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>7036</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>8120</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>8283</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>8649</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>8943</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>9069</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>9081</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>9289</v>
+      </c>
+      <c r="B84">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>9372</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>9491</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>9964</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>9965</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>9967</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>9971</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>10149</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>10407</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>10574</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>10609</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>10993</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>11089</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>11150</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>11404</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>11426</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>11583</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>11681</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>11770</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>11772</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>11813</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>11814</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>12304</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>12349</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>12350</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>12351</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>12352</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>12353</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>12764</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>12870</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>13023</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>13028</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>13034</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>13249</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>13280</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>13893</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>20927</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>21697</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>21793</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>22317</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,662 +399,948 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>424</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>843</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1598</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>764</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1528</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>523</v>
+        <v>414</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>615</v>
+        <v>523</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1490</v>
+        <v>589</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1701</v>
+        <v>593</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>176</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2160</v>
+        <v>823</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2438</v>
+        <v>957</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>743</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2775</v>
+        <v>995</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2778</v>
+        <v>997</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2912</v>
+        <v>998</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2912</v>
+        <v>1277</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>447</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3495</v>
+        <v>1492</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3575</v>
+        <v>1886</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3891</v>
+        <v>2327</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4033</v>
+        <v>2424</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4253</v>
+        <v>2438</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>197</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5209</v>
+        <v>2775</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>328</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5584</v>
+        <v>2778</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>278</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>6158</v>
+        <v>2805</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C31">
-        <v>310</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6494</v>
+        <v>2878</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>6952</v>
+        <v>2912</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>212</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>7324</v>
+        <v>3495</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>71</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>7567</v>
+        <v>3576</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8089</v>
+        <v>3889</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8283</v>
+        <v>3891</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>552</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>8677</v>
+        <v>3893</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>346</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8853</v>
+        <v>4032</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>329</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>9289</v>
+        <v>4033</v>
       </c>
       <c r="B40">
         <v>29</v>
       </c>
       <c r="C40">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>9372</v>
+        <v>4076</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>9910</v>
+        <v>4253</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9964</v>
+        <v>4586</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>320</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9965</v>
+        <v>5151</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9967</v>
+        <v>5165</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>320</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9971</v>
+        <v>5165</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>320</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>10609</v>
+        <v>5208</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>337</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>11150</v>
+        <v>5209</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>415</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>11404</v>
+        <v>5584</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>124</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>11581</v>
+        <v>5812</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>11671</v>
+        <v>6097</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>337</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>12304</v>
+        <v>6098</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C52">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>12870</v>
+        <v>6936</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>155</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>13893</v>
+        <v>6952</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>320</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>14037</v>
+        <v>7036</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>399</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>14041</v>
+        <v>7084</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>818</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>21793</v>
+        <v>8089</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>268</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>22316</v>
+        <v>8283</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>378</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>24257</v>
+        <v>8677</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>144</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>24258</v>
+        <v>9069</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>24664</v>
+        <v>9372</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>336</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>9507</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>9760</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>9964</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>9965</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>9967</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>9971</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>10149</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>10407</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>10517</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>10609</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>11089</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>11426</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>11687</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>11770</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>11772</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>11952</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>12304</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>12647</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>12870</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>13023</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>13033</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>13034</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>13244</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>13893</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>14037</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>21697</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,343 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>490</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>616</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1667</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2335</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3576</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5813</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6496</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7704</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8285</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8648</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9082</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9827</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10616</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11504</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>11942</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>11954</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>12338</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>12346</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>13028</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>13244</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>13281</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>13498</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>14017</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>211</v>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>19925</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>20969</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>21699</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>21701</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>23234</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>23235</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,57 +399,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>616</v>
+        <v>1309</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1667</v>
+        <v>1801</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>217</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,29 +460,29 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3576</v>
+        <v>5165</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5813</v>
+        <v>5584</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>638</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,249 +493,161 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7704</v>
+        <v>6497</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>8285</v>
+        <v>7036</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>525</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8648</v>
+        <v>7704</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>248</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>9082</v>
+        <v>7708</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2824</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>9827</v>
+        <v>8285</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10616</v>
+        <v>8898</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>11504</v>
+        <v>8944</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>11942</v>
+        <v>9827</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>11954</v>
+        <v>11942</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>223</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>12338</v>
+        <v>13028</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>12346</v>
+        <v>13498</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>670</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13028</v>
+        <v>14017</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>13244</v>
+        <v>21700</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>450</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>13281</v>
+        <v>21703</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>13498</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>14017</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>19925</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>20969</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>21699</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>21701</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>23234</v>
-      </c>
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>23235</v>
-      </c>
-      <c r="B32">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>91</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,255 +399,145 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>345</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>345</v>
+        <v>5165</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>362</v>
+        <v>5813</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1309</v>
+        <v>7887</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1801</v>
+        <v>8285</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2335</v>
+        <v>8944</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5165</v>
+        <v>10536</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5584</v>
+        <v>11091</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>280</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6496</v>
+        <v>13251</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6497</v>
+        <v>14017</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7036</v>
+        <v>21060</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>148</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7704</v>
+        <v>23238</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>204</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7708</v>
+        <v>23380</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>8285</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>8898</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>8944</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>9827</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>11942</v>
-      </c>
-      <c r="B19">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>13028</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>13498</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>14017</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>21700</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>21703</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>339</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,139 +405,491 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5165</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>454</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5813</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>659</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>7887</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>8285</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>8944</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>258</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>10536</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>332</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>11091</v>
+        <v>159</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>13251</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>14017</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>225</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>21060</v>
+        <v>345</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>23238</v>
+        <v>346</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
+        <v>346</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1492</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1667</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1801</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2528</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2695</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2878</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>4033</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>5584</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>6494</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>6496</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>6497</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>7084</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>7324</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>7567</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>8285</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>8557</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>9069</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>9186</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>10398</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>11150</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>11234</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>11767</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>12343</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>12346</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>12351</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>13028</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>13244</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>23234</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>23380</v>
       </c>
-      <c r="B14">
+      <c r="B43">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>110</v>
+      <c r="C43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>24566</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>24567</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>24722</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/CartRules_702.xlsx
+++ b/CartRules_702.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,288 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6936</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6935</v>
+        <v>220</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8853</v>
+        <v>389</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>955</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>19</v>
+      <c r="C5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1309</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3337</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3478</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3900</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5584</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7036</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>7324</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8285</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8557</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9069</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>9186</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>9910</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>10398</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>10536</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>10720</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>11150</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>12538</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>12924</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>12925</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>13283</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>13498</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>20969</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
